--- a/src/assets/formatos/Formato Carga de Calificaciones.xlsx
+++ b/src/assets/formatos/Formato Carga de Calificaciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\TESI Indicadores\Website Angular\Tesi-Indicadores-FrontEnd\src\assets\formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380BCCEE-99E5-47D6-B45D-0AB0F245A306}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0B9327-A4A9-420E-8566-02A8C15723D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AEF579E2-DB62-47A3-A9DA-1F3D7AFCF09F}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Formato" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Formato!$A$1:$G$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Formato!$A$1:$G$9</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Asignatura:</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Periodo</t>
+  </si>
+  <si>
+    <t>Mario Alberto Rodriguez Roldan</t>
   </si>
 </sst>
 </file>
@@ -156,7 +159,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -286,12 +289,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -300,9 +312,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -315,18 +324,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -365,6 +365,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -390,13 +393,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -433,13 +436,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -476,13 +479,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -519,13 +522,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -562,13 +565,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -605,13 +608,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -648,13 +651,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -691,13 +694,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -734,13 +737,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -777,13 +780,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -820,13 +823,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -863,13 +866,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -906,13 +909,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1296,10 +1299,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC398A3-FA53-49D3-B8B7-96A756FF93C6}">
   <sheetPr codeName="Hoja5"/>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1312,364 +1315,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" ht="21" customHeight="1" thickBot="1">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7" ht="32.25" customHeight="1" thickTop="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:7" ht="30.75" customHeight="1">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="24" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>201224992</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22">
+        <v>100</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="69">
+  <mergeCells count="13">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E1:G4"/>
@@ -1681,64 +1442,6 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup scale="58" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/src/assets/formatos/Formato Carga de Calificaciones.xlsx
+++ b/src/assets/formatos/Formato Carga de Calificaciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\TESI Indicadores\Website Angular\Tesi-Indicadores-FrontEnd\src\assets\formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0B9327-A4A9-420E-8566-02A8C15723D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8244EF8E-854D-42E6-A1D5-6FE85F7F3CEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AEF579E2-DB62-47A3-A9DA-1F3D7AFCF09F}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Formato" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Formato!$A$1:$G$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Formato!$A$1:$G$8</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Asignatura:</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Periodo</t>
-  </si>
-  <si>
-    <t>Mario Alberto Rodriguez Roldan</t>
   </si>
 </sst>
 </file>
@@ -159,7 +156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -289,21 +286,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -321,9 +309,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -333,9 +318,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -354,9 +336,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -366,8 +345,11 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1299,10 +1281,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC398A3-FA53-49D3-B8B7-96A756FF93C6}">
   <sheetPr codeName="Hoja5"/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1315,122 +1297,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="15"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="15"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" ht="21" customHeight="1" thickBot="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="16"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" ht="32.25" customHeight="1" thickTop="1">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="5"/>
       <c r="D7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" ht="30.75" customHeight="1">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="18" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>201224992</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22">
-        <v>100</v>
-      </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
+  <mergeCells count="11">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E1:G4"/>

--- a/src/assets/formatos/Formato Carga de Calificaciones.xlsx
+++ b/src/assets/formatos/Formato Carga de Calificaciones.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\TESI Indicadores\Website Angular\Tesi-Indicadores-FrontEnd\src\assets\formatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ciak3\Desktop\Tesi Indicadores\Tesi Indicadores Fron End\Tesi-Indicadores-FrontEnd\Formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8244EF8E-854D-42E6-A1D5-6FE85F7F3CEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE1759D-9FF6-44F8-822B-FAFEABC2A56D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AEF579E2-DB62-47A3-A9DA-1F3D7AFCF09F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AEF579E2-DB62-47A3-A9DA-1F3D7AFCF09F}"/>
   </bookViews>
   <sheets>
     <sheet name="Formato" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Formato!$A$1:$G$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Formato!$A$1:$G$9</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Asignatura:</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Periodo</t>
+  </si>
+  <si>
+    <t>Mario Alberto Rodriguez Roldan</t>
   </si>
 </sst>
 </file>
@@ -156,7 +159,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -286,12 +289,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -309,15 +321,24 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -336,6 +357,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -344,12 +368,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1281,119 +1299,140 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC398A3-FA53-49D3-B8B7-96A756FF93C6}">
   <sheetPr codeName="Hoja5"/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:AMG9"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:G9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="A8:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="42.28515625" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="1021" width="10.5703125" customWidth="1"/>
+    <col min="5" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="1021" width="10.5703125" hidden="1"/>
+    <col min="1022" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="13"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="16"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="13"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" ht="21" customHeight="1" thickBot="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="14"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:7" ht="32.25" customHeight="1" thickTop="1">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="5"/>
       <c r="D7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" ht="30.75" customHeight="1">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>201224992</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9">
+        <v>100</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E1:G4"/>
